--- a/Elevation_check/Elevation_check/August 9 Reef Element 13.xlsx
+++ b/Elevation_check/Elevation_check/August 9 Reef Element 13.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\My Documents\Lone Cabbage Reef\Survey\Survey from August 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{427813FA-B3D6-4D41-AC3C-F228EDC2853B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13830" xr2:uid="{C446E698-6D36-4669-BAA4-368916154F0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="combined" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="15">
   <si>
     <t>GS</t>
   </si>
@@ -75,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,7 +226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -425,33 +420,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDD3F7-F756-451C-83F2-FBAFB05B51B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -465,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -476,7 +471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="I9" t="s">
         <v>6</v>
       </c>
@@ -497,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -505,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>256</v>
       </c>
@@ -522,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>257</v>
       </c>
@@ -550,7 +545,7 @@
         <v>1.0226600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>258</v>
       </c>
@@ -578,7 +573,7 @@
         <v>1.01312</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>259</v>
       </c>
@@ -606,7 +601,7 @@
         <v>0.79906999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>260</v>
       </c>
@@ -634,7 +629,7 @@
         <v>1.1972400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>261</v>
       </c>
@@ -662,7 +657,7 @@
         <v>0.96524999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>262</v>
       </c>
@@ -690,7 +685,7 @@
         <v>1.21326</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>263</v>
       </c>
@@ -718,7 +713,7 @@
         <v>1.2520800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>264</v>
       </c>
@@ -746,7 +741,7 @@
         <v>1.20567</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>265</v>
       </c>
@@ -774,7 +769,7 @@
         <v>1.1023100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>266</v>
       </c>
@@ -802,7 +797,7 @@
         <v>1.17761</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>267</v>
       </c>
@@ -830,7 +825,7 @@
         <v>0.90962999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>268</v>
       </c>
@@ -858,7 +853,7 @@
         <v>1.07775</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>269</v>
       </c>
@@ -886,7 +881,7 @@
         <v>1.5480000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>270</v>
       </c>
@@ -914,7 +909,7 @@
         <v>1.3543999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>271</v>
       </c>
@@ -938,19 +933,19 @@
         <v>-1.831289285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="D27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="D28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="D29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>272</v>
       </c>
@@ -968,7 +963,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>273</v>
       </c>
@@ -996,7 +991,7 @@
         <v>1.4150400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>274</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>1.3996600000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>275</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>1.3197600000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>276</v>
       </c>
@@ -1080,7 +1075,7 @@
         <v>1.3250400000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>277</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>1.38181</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>278</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>1.26247</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>279</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>1.29677</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>280</v>
       </c>
@@ -1192,7 +1187,7 @@
         <v>1.3285199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>281</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>1.2511700000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>282</v>
       </c>
@@ -1248,7 +1243,7 @@
         <v>1.3281400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>283</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>1.2585500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>284</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>0.98334999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>285</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>0.94333</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>286</v>
       </c>
@@ -1360,7 +1355,7 @@
         <v>1.0448</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>287</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>0.92589999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>288</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>1.25695</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>289</v>
       </c>
@@ -1444,7 +1439,7 @@
         <v>1.12181</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>290</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>1.17241</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>291</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>1.0242100000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>292</v>
       </c>
@@ -1528,7 +1523,7 @@
         <v>1.20875</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>293</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>1.1138700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>294</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>0.95260999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>295</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>1.2072000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>296</v>
       </c>
@@ -1640,7 +1635,7 @@
         <v>0.86821999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>297</v>
       </c>
@@ -1668,7 +1663,7 @@
         <v>1.0212400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>298</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>0.97965999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>299</v>
       </c>
@@ -1724,7 +1719,7 @@
         <v>1.2067600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>300</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>1.68747</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>301</v>
       </c>
@@ -1776,16 +1771,16 @@
         <v>-1.8887667857142858</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>302</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>303</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>1.3411199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>304</v>
       </c>
@@ -1858,7 +1853,7 @@
         <v>0.86892999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>305</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>1.35598</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>306</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>1.06124</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>307</v>
       </c>
@@ -1942,7 +1937,7 @@
         <v>0.88606000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>308</v>
       </c>
@@ -1970,7 +1965,7 @@
         <v>0.84360000000000013</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>309</v>
       </c>
@@ -1998,7 +1993,7 @@
         <v>1.04976</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>310</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>1.32521</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>311</v>
       </c>
@@ -2054,7 +2049,7 @@
         <v>1.4924700000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>312</v>
       </c>
@@ -2082,7 +2077,7 @@
         <v>1.59873</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>313</v>
       </c>
@@ -2110,7 +2105,7 @@
         <v>1.5566600000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>314</v>
       </c>
@@ -2138,7 +2133,7 @@
         <v>1.3015000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>315</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>1.5286100000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>316</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>1.1656</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>317</v>
       </c>
@@ -2222,7 +2217,7 @@
         <v>1.0835000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>318</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>1.4297799999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>319</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>-1.9430468749999998</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>320</v>
       </c>
@@ -2291,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>321</v>
       </c>
@@ -2319,7 +2314,7 @@
         <v>1.3355500000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>322</v>
       </c>
@@ -2347,7 +2342,7 @@
         <v>1.4552600000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>323</v>
       </c>
@@ -2375,7 +2370,7 @@
         <v>1.1323799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>324</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>1.3061</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>325</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>1.5018900000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>326</v>
       </c>
@@ -2459,7 +2454,7 @@
         <v>1.1909700000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>327</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>1.1817</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>328</v>
       </c>
@@ -2515,7 +2510,7 @@
         <v>1.48458</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>329</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>1.3253100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>330</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>1.26136</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>331</v>
       </c>
@@ -2599,7 +2594,7 @@
         <v>1.3497000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>332</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>1.0401800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>333</v>
       </c>
@@ -2655,7 +2650,7 @@
         <v>0.9387700000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>334</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>1.24288</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>335</v>
       </c>
@@ -2711,7 +2706,7 @@
         <v>1.4844999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>336</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>1.4714400000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>337</v>
       </c>
@@ -2767,7 +2762,7 @@
         <v>1.06528</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>338</v>
       </c>
@@ -2795,7 +2790,7 @@
         <v>1.3693899999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>339</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>1.2118</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>340</v>
       </c>
@@ -2851,7 +2846,7 @@
         <v>1.33992</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>341</v>
       </c>
@@ -2879,7 +2874,7 @@
         <v>0.87343000000000015</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>342</v>
       </c>
@@ -2907,7 +2902,7 @@
         <v>1.17032</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>343</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>-1.9605777272727274</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>344</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>345</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>1.0610200000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>346</v>
       </c>
@@ -3004,7 +2999,7 @@
         <v>1.18502</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>347</v>
       </c>
@@ -3032,7 +3027,7 @@
         <v>1.0145300000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>348</v>
       </c>
@@ -3060,7 +3055,7 @@
         <v>1.1061000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>349</v>
       </c>
@@ -3088,7 +3083,7 @@
         <v>1.03403</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>350</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>0.88335000000000008</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>351</v>
       </c>
@@ -3144,7 +3139,7 @@
         <v>0.86604000000000014</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>352</v>
       </c>
@@ -3172,7 +3167,7 @@
         <v>1.1233500000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>353</v>
       </c>
@@ -3200,7 +3195,7 @@
         <v>0.72436999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>354</v>
       </c>
@@ -3228,7 +3223,7 @@
         <v>0.93098000000000014</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>355</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>1.1438200000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>356</v>
       </c>
@@ -3284,7 +3279,7 @@
         <v>0.82155</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>357</v>
       </c>
@@ -3312,7 +3307,7 @@
         <v>0.96026000000000011</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>358</v>
       </c>
@@ -3340,7 +3335,7 @@
         <v>0.84558</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>359</v>
       </c>
@@ -3368,7 +3363,7 @@
         <v>0.84782000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>360</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>1.0670300000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>361</v>
       </c>
@@ -3424,7 +3419,7 @@
         <v>1.0674700000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>362</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>1.3374599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>363</v>
       </c>
@@ -3480,7 +3475,7 @@
         <v>1.3234000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>364</v>
       </c>
@@ -3508,7 +3503,7 @@
         <v>1.0257700000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>365</v>
       </c>
@@ -3536,7 +3531,7 @@
         <v>1.10599</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>366</v>
       </c>
@@ -3564,7 +3559,7 @@
         <v>1.4394000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>367</v>
       </c>
@@ -3592,7 +3587,7 @@
         <v>1.0131600000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>368</v>
       </c>
@@ -3621,7 +3616,7 @@
         <v>1.2500900000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>369</v>
       </c>
@@ -3649,7 +3644,7 @@
         <v>1.5717000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>370</v>
       </c>
@@ -3677,7 +3672,7 @@
         <v>1.23902</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>371</v>
       </c>
@@ -3705,7 +3700,7 @@
         <v>1.03803</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>372</v>
       </c>
@@ -3733,7 +3728,7 @@
         <v>1.06376</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>373</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>1.14649</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>374</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>1.29478</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>375</v>
       </c>
@@ -3813,7 +3808,7 @@
         <v>-1.7843790000000006</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>376</v>
       </c>
@@ -3830,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>377</v>
       </c>
@@ -3858,7 +3853,7 @@
         <v>1.1316600000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>378</v>
       </c>
@@ -3886,7 +3881,7 @@
         <v>0.86467000000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>379</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>1.24007</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>380</v>
       </c>
@@ -3942,7 +3937,7 @@
         <v>0.98466999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>381</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>1.08975</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>382</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>1.1197600000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>383</v>
       </c>
@@ -4026,7 +4021,7 @@
         <v>1.5345600000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>384</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v>1.36927</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>385</v>
       </c>
@@ -4082,7 +4077,7 @@
         <v>1.4242899999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>386</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>1.4398199999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>387</v>
       </c>
@@ -4138,7 +4133,7 @@
         <v>1.02077</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>388</v>
       </c>
@@ -4166,7 +4161,7 @@
         <v>1.2903</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>389</v>
       </c>
@@ -4194,7 +4189,7 @@
         <v>1.02153</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>390</v>
       </c>
@@ -4222,7 +4217,7 @@
         <v>1.4157599999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>391</v>
       </c>
@@ -4250,7 +4245,7 @@
         <v>1.5603</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>392</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>1.11006</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>393</v>
       </c>
@@ -4306,7 +4301,7 @@
         <v>0.93101000000000012</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>394</v>
       </c>
@@ -4334,7 +4329,7 @@
         <v>0.96571000000000007</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>395</v>
       </c>
@@ -4362,7 +4357,7 @@
         <v>0.80828999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>396</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>1.2961500000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>397</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>0.68092000000000019</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>398</v>
       </c>
@@ -4435,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>399</v>
       </c>
@@ -4463,7 +4458,7 @@
         <v>1.2799500000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>400</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>1.7482900000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>401</v>
       </c>
@@ -4519,7 +4514,7 @@
         <v>1.6585500000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>402</v>
       </c>
@@ -4547,7 +4542,7 @@
         <v>1.6237999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>403</v>
       </c>
@@ -4575,7 +4570,7 @@
         <v>0.99883000000000011</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>404</v>
       </c>
@@ -4603,7 +4598,7 @@
         <v>1.1215200000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>405</v>
       </c>
@@ -4631,7 +4626,7 @@
         <v>1.3506000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>406</v>
       </c>
@@ -4659,7 +4654,7 @@
         <v>1.5746100000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>407</v>
       </c>
@@ -4687,7 +4682,7 @@
         <v>1.14202</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>408</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>1.5273000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>409</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>1.10991</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>410</v>
       </c>
@@ -4771,7 +4766,7 @@
         <v>0.99361999999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>411</v>
       </c>
@@ -4799,7 +4794,7 @@
         <v>1.4021899999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>412</v>
       </c>
@@ -4827,7 +4822,7 @@
         <v>0.95284999999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>413</v>
       </c>
@@ -4855,7 +4850,7 @@
         <v>1.28332</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>414</v>
       </c>
@@ -4883,7 +4878,7 @@
         <v>1.5061000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>415</v>
       </c>
@@ -4911,7 +4906,7 @@
         <v>1.4303200000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>416</v>
       </c>
@@ -4939,4 +4934,3722 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:I163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>1790024.76318</v>
+      </c>
+      <c r="E3">
+        <v>304173.21250000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2.8681299999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4">
+        <v>257</v>
+      </c>
+      <c r="D4">
+        <v>1790029.7011899999</v>
+      </c>
+      <c r="E4">
+        <v>304178.47259000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.7226600000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5">
+        <v>258</v>
+      </c>
+      <c r="D5">
+        <v>1790031.30265</v>
+      </c>
+      <c r="E5">
+        <v>304178.95741999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1.71312</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6">
+        <v>259</v>
+      </c>
+      <c r="D6">
+        <v>1790031.7641700001</v>
+      </c>
+      <c r="E6">
+        <v>304179.44300000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1.4990699999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7">
+        <v>260</v>
+      </c>
+      <c r="D7">
+        <v>1790032.36849</v>
+      </c>
+      <c r="E7">
+        <v>304180.88231000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1.89724</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>1790033.09558</v>
+      </c>
+      <c r="E8">
+        <v>304183.55090999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1.6652499999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9">
+        <v>262</v>
+      </c>
+      <c r="D9">
+        <v>1790033.9584900001</v>
+      </c>
+      <c r="E9">
+        <v>304185.27519000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.91326</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10">
+        <v>263</v>
+      </c>
+      <c r="D10">
+        <v>1790034.90123</v>
+      </c>
+      <c r="E10">
+        <v>304186.19040999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1.95208</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11">
+        <v>264</v>
+      </c>
+      <c r="D11">
+        <v>1790035.3837900001</v>
+      </c>
+      <c r="E11">
+        <v>304187.55586999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1.90567</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12">
+        <v>265</v>
+      </c>
+      <c r="D12">
+        <v>1790035.86014</v>
+      </c>
+      <c r="E12">
+        <v>304188.58246000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.8023100000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13">
+        <v>266</v>
+      </c>
+      <c r="D13">
+        <v>1790036.5589300001</v>
+      </c>
+      <c r="E13">
+        <v>304191.13787999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.87761</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>1790038.19288</v>
+      </c>
+      <c r="E14">
+        <v>304191.68807999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1.6096299999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15">
+        <v>268</v>
+      </c>
+      <c r="D15">
+        <v>1790038.80477</v>
+      </c>
+      <c r="E15">
+        <v>304192.60980999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1.7777499999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16">
+        <v>269</v>
+      </c>
+      <c r="D16">
+        <v>1790039.69016</v>
+      </c>
+      <c r="E16">
+        <v>304193.57835999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-2.2480000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17">
+        <v>270</v>
+      </c>
+      <c r="D17">
+        <v>1790041.27804</v>
+      </c>
+      <c r="E17">
+        <v>304195.11463999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-2.0543999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18">
+        <v>271</v>
+      </c>
+      <c r="D18">
+        <v>1790042.3709</v>
+      </c>
+      <c r="E18">
+        <v>304196.69965999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-2.8240400000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19">
+        <v>272</v>
+      </c>
+      <c r="D19">
+        <v>1790073.4447900001</v>
+      </c>
+      <c r="E19">
+        <v>304137.55690000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-2.95608</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20">
+        <v>273</v>
+      </c>
+      <c r="D20">
+        <v>1790073.99275</v>
+      </c>
+      <c r="E20">
+        <v>304138.93511000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-2.11504</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21">
+        <v>274</v>
+      </c>
+      <c r="D21">
+        <v>1790075.18991</v>
+      </c>
+      <c r="E21">
+        <v>304139.79528999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-2.0996600000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22">
+        <v>275</v>
+      </c>
+      <c r="D22">
+        <v>1790075.6124100001</v>
+      </c>
+      <c r="E22">
+        <v>304140.25793999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-2.0197600000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23">
+        <v>276</v>
+      </c>
+      <c r="D23">
+        <v>1790076.31568</v>
+      </c>
+      <c r="E23">
+        <v>304141.22172999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-2.0250400000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24">
+        <v>277</v>
+      </c>
+      <c r="D24">
+        <v>1790077.4405400001</v>
+      </c>
+      <c r="E24">
+        <v>304142.80690000003</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-2.0818099999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25">
+        <v>278</v>
+      </c>
+      <c r="D25">
+        <v>1790077.8070799999</v>
+      </c>
+      <c r="E25">
+        <v>304143.56313000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.9624699999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26">
+        <v>279</v>
+      </c>
+      <c r="D26">
+        <v>1790078.19826</v>
+      </c>
+      <c r="E26">
+        <v>304144.79473000002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.9967699999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27">
+        <v>280</v>
+      </c>
+      <c r="D27">
+        <v>1790078.96184</v>
+      </c>
+      <c r="E27">
+        <v>304145.35700000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-2.0285199999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28">
+        <v>281</v>
+      </c>
+      <c r="D28">
+        <v>1790080.3487</v>
+      </c>
+      <c r="E28">
+        <v>304146.12744000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.9511700000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29">
+        <v>282</v>
+      </c>
+      <c r="D29">
+        <v>1790081.4087499999</v>
+      </c>
+      <c r="E29">
+        <v>304146.16042999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-2.0281400000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30">
+        <v>283</v>
+      </c>
+      <c r="D30">
+        <v>1790082.2195600001</v>
+      </c>
+      <c r="E30">
+        <v>304147.70766000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.95855</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31">
+        <v>284</v>
+      </c>
+      <c r="D31">
+        <v>1790082.9853099999</v>
+      </c>
+      <c r="E31">
+        <v>304148.42826999997</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1.6833499999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32">
+        <v>285</v>
+      </c>
+      <c r="D32">
+        <v>1790083.25373</v>
+      </c>
+      <c r="E32">
+        <v>304148.62887000002</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1.64333</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33">
+        <v>286</v>
+      </c>
+      <c r="D33">
+        <v>1790083.79822</v>
+      </c>
+      <c r="E33">
+        <v>304149.51556000003</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1.7447999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34">
+        <v>287</v>
+      </c>
+      <c r="D34">
+        <v>1790084.7128999999</v>
+      </c>
+      <c r="E34">
+        <v>304150.14185000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1.6258999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35">
+        <v>288</v>
+      </c>
+      <c r="D35">
+        <v>1790084.7941300001</v>
+      </c>
+      <c r="E35">
+        <v>304151.28479000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1.95695</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36">
+        <v>289</v>
+      </c>
+      <c r="D36">
+        <v>1790086.03828</v>
+      </c>
+      <c r="E36">
+        <v>304151.77426999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1.8218099999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37">
+        <v>290</v>
+      </c>
+      <c r="D37">
+        <v>1790086.6049899999</v>
+      </c>
+      <c r="E37">
+        <v>304153.15824000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1.8724099999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38">
+        <v>291</v>
+      </c>
+      <c r="D38">
+        <v>1790087.1877599999</v>
+      </c>
+      <c r="E38">
+        <v>304153.16266999999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1.72421</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39">
+        <v>292</v>
+      </c>
+      <c r="D39">
+        <v>1790088.1453100001</v>
+      </c>
+      <c r="E39">
+        <v>304153.58786999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1.9087499999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40">
+        <v>293</v>
+      </c>
+      <c r="D40">
+        <v>1790088.44141</v>
+      </c>
+      <c r="E40">
+        <v>304154.25225999998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1.8138700000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41">
+        <v>294</v>
+      </c>
+      <c r="D41">
+        <v>1790089.0617200001</v>
+      </c>
+      <c r="E41">
+        <v>304155.38338000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1.6526099999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42">
+        <v>295</v>
+      </c>
+      <c r="D42">
+        <v>1790089.5018199999</v>
+      </c>
+      <c r="E42">
+        <v>304155.93745000003</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-1.9072</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43">
+        <v>296</v>
+      </c>
+      <c r="D43">
+        <v>1790090.1811800001</v>
+      </c>
+      <c r="E43">
+        <v>304156.35164000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1.5682199999999999</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44">
+        <v>297</v>
+      </c>
+      <c r="D44">
+        <v>1790090.6685899999</v>
+      </c>
+      <c r="E44">
+        <v>304156.91149999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1.7212400000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45">
+        <v>298</v>
+      </c>
+      <c r="D45">
+        <v>1790091.5132200001</v>
+      </c>
+      <c r="E45">
+        <v>304158.05339000002</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1.6796599999999999</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46">
+        <v>299</v>
+      </c>
+      <c r="D46">
+        <v>1790091.8893200001</v>
+      </c>
+      <c r="E46">
+        <v>304158.32958000002</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1.90676</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47">
+        <v>300</v>
+      </c>
+      <c r="D47">
+        <v>1790092.3733900001</v>
+      </c>
+      <c r="E47">
+        <v>304159.23726999998</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-2.38747</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48">
+        <v>301</v>
+      </c>
+      <c r="D48">
+        <v>1790092.86623</v>
+      </c>
+      <c r="E48">
+        <v>304159.64749</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-2.9125299999999998</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49">
+        <v>302</v>
+      </c>
+      <c r="D49">
+        <v>1790144.0897299999</v>
+      </c>
+      <c r="E49">
+        <v>304118.81091</v>
+      </c>
+      <c r="F49">
+        <v>-2.67421</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50">
+        <v>303</v>
+      </c>
+      <c r="D50">
+        <v>1790143.2940199999</v>
+      </c>
+      <c r="E50">
+        <v>304118.75442000001</v>
+      </c>
+      <c r="F50">
+        <v>-2.0411199999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51">
+        <v>304</v>
+      </c>
+      <c r="D51">
+        <v>1790142.16527</v>
+      </c>
+      <c r="E51">
+        <v>304117.21555999998</v>
+      </c>
+      <c r="F51">
+        <v>-1.5689299999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52">
+        <v>305</v>
+      </c>
+      <c r="D52">
+        <v>1790142.0766700001</v>
+      </c>
+      <c r="E52">
+        <v>304116.58014999999</v>
+      </c>
+      <c r="F52">
+        <v>-2.0559799999999999</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53">
+        <v>306</v>
+      </c>
+      <c r="D53">
+        <v>1790141.9745199999</v>
+      </c>
+      <c r="E53">
+        <v>304116.13673000003</v>
+      </c>
+      <c r="F53">
+        <v>-1.7612399999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54">
+        <v>307</v>
+      </c>
+      <c r="D54">
+        <v>1790142.0684199999</v>
+      </c>
+      <c r="E54">
+        <v>304114.40445999999</v>
+      </c>
+      <c r="F54">
+        <v>-1.58606</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55">
+        <v>308</v>
+      </c>
+      <c r="D55">
+        <v>1790141.7942600001</v>
+      </c>
+      <c r="E55">
+        <v>304113.49644999998</v>
+      </c>
+      <c r="F55">
+        <v>-1.5436000000000001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56">
+        <v>309</v>
+      </c>
+      <c r="D56">
+        <v>1790140.42833</v>
+      </c>
+      <c r="E56">
+        <v>304110.5318</v>
+      </c>
+      <c r="F56">
+        <v>-1.74976</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57">
+        <v>310</v>
+      </c>
+      <c r="D57">
+        <v>1790139.0282699999</v>
+      </c>
+      <c r="E57">
+        <v>304110.33213</v>
+      </c>
+      <c r="F57">
+        <v>-2.02521</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58">
+        <v>311</v>
+      </c>
+      <c r="D58">
+        <v>1790137.6714900001</v>
+      </c>
+      <c r="E58">
+        <v>304108.89814</v>
+      </c>
+      <c r="F58">
+        <v>-2.1924700000000001</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59">
+        <v>312</v>
+      </c>
+      <c r="D59">
+        <v>1790137.8657500001</v>
+      </c>
+      <c r="E59">
+        <v>304107.81465999997</v>
+      </c>
+      <c r="F59">
+        <v>-2.2987299999999999</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60">
+        <v>313</v>
+      </c>
+      <c r="D60">
+        <v>1790136.9458699999</v>
+      </c>
+      <c r="E60">
+        <v>304106.65960000001</v>
+      </c>
+      <c r="F60">
+        <v>-2.2566600000000001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61">
+        <v>314</v>
+      </c>
+      <c r="D61">
+        <v>1790135.3430900001</v>
+      </c>
+      <c r="E61">
+        <v>304106.05813000002</v>
+      </c>
+      <c r="F61">
+        <v>-2.0015000000000001</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62">
+        <v>315</v>
+      </c>
+      <c r="D62">
+        <v>1790134.0222400001</v>
+      </c>
+      <c r="E62">
+        <v>304104.87766</v>
+      </c>
+      <c r="F62">
+        <v>-2.2286100000000002</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63">
+        <v>316</v>
+      </c>
+      <c r="D63">
+        <v>1790130.9536600001</v>
+      </c>
+      <c r="E63">
+        <v>304101.65164</v>
+      </c>
+      <c r="F63">
+        <v>-1.8655999999999999</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64">
+        <v>317</v>
+      </c>
+      <c r="D64">
+        <v>1790129.48725</v>
+      </c>
+      <c r="E64">
+        <v>304099.08240999997</v>
+      </c>
+      <c r="F64">
+        <v>-1.7835000000000001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65">
+        <v>318</v>
+      </c>
+      <c r="D65">
+        <v>1790128.7574199999</v>
+      </c>
+      <c r="E65">
+        <v>304098.31614000001</v>
+      </c>
+      <c r="F65">
+        <v>-2.1297799999999998</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66">
+        <v>319</v>
+      </c>
+      <c r="D66">
+        <v>1790125.90426</v>
+      </c>
+      <c r="E66">
+        <v>304095.93355999998</v>
+      </c>
+      <c r="F66">
+        <v>-2.83474</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67">
+        <v>320</v>
+      </c>
+      <c r="D67">
+        <v>1790165.42169</v>
+      </c>
+      <c r="E67">
+        <v>304064.41132000001</v>
+      </c>
+      <c r="F67">
+        <v>-2.8458399999999999</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68">
+        <v>321</v>
+      </c>
+      <c r="D68">
+        <v>1790166.4344200001</v>
+      </c>
+      <c r="E68">
+        <v>304065.21876000002</v>
+      </c>
+      <c r="F68">
+        <v>-2.0355500000000002</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69">
+        <v>322</v>
+      </c>
+      <c r="D69">
+        <v>1790167.51654</v>
+      </c>
+      <c r="E69">
+        <v>304066.60253999999</v>
+      </c>
+      <c r="F69">
+        <v>-2.1552600000000002</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70">
+        <v>323</v>
+      </c>
+      <c r="D70">
+        <v>1790168.2305300001</v>
+      </c>
+      <c r="E70">
+        <v>304068.14902000001</v>
+      </c>
+      <c r="F70">
+        <v>-1.8323799999999999</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71">
+        <v>324</v>
+      </c>
+      <c r="D71">
+        <v>1790170.0783500001</v>
+      </c>
+      <c r="E71">
+        <v>304069.79092</v>
+      </c>
+      <c r="F71">
+        <v>-2.0061</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72">
+        <v>325</v>
+      </c>
+      <c r="D72">
+        <v>1790170.6587700001</v>
+      </c>
+      <c r="E72">
+        <v>304071.86661999999</v>
+      </c>
+      <c r="F72">
+        <v>-2.2018900000000001</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73">
+        <v>326</v>
+      </c>
+      <c r="D73">
+        <v>1790171.1804800001</v>
+      </c>
+      <c r="E73">
+        <v>304073.01079999999</v>
+      </c>
+      <c r="F73">
+        <v>-1.89097</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74">
+        <v>327</v>
+      </c>
+      <c r="D74">
+        <v>1790171.8992000001</v>
+      </c>
+      <c r="E74">
+        <v>304072.97128</v>
+      </c>
+      <c r="F74">
+        <v>-1.8816999999999999</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75">
+        <v>328</v>
+      </c>
+      <c r="D75">
+        <v>1790172.4860700001</v>
+      </c>
+      <c r="E75">
+        <v>304075.46685000003</v>
+      </c>
+      <c r="F75">
+        <v>-2.18458</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76">
+        <v>329</v>
+      </c>
+      <c r="D76">
+        <v>1790173.02945</v>
+      </c>
+      <c r="E76">
+        <v>304075.69173999998</v>
+      </c>
+      <c r="F76">
+        <v>-2.0253100000000002</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77">
+        <v>330</v>
+      </c>
+      <c r="D77">
+        <v>1790174.0804099999</v>
+      </c>
+      <c r="E77">
+        <v>304076.63039000001</v>
+      </c>
+      <c r="F77">
+        <v>-1.96136</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78">
+        <v>331</v>
+      </c>
+      <c r="D78">
+        <v>1790175.3263699999</v>
+      </c>
+      <c r="E78">
+        <v>304077.93614000001</v>
+      </c>
+      <c r="F78">
+        <v>-2.0497000000000001</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79">
+        <v>332</v>
+      </c>
+      <c r="D79">
+        <v>1790175.3986899999</v>
+      </c>
+      <c r="E79">
+        <v>304078.85622000002</v>
+      </c>
+      <c r="F79">
+        <v>-1.7401800000000001</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80">
+        <v>333</v>
+      </c>
+      <c r="D80">
+        <v>1790175.81587</v>
+      </c>
+      <c r="E80">
+        <v>304080.03792999999</v>
+      </c>
+      <c r="F80">
+        <v>-1.6387700000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81">
+        <v>334</v>
+      </c>
+      <c r="D81">
+        <v>1790177.03593</v>
+      </c>
+      <c r="E81">
+        <v>304080.16128</v>
+      </c>
+      <c r="F81">
+        <v>-1.9428799999999999</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82">
+        <v>335</v>
+      </c>
+      <c r="D82">
+        <v>1790177.1344399999</v>
+      </c>
+      <c r="E82">
+        <v>304081.59217000002</v>
+      </c>
+      <c r="F82">
+        <v>-2.1844999999999999</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83">
+        <v>336</v>
+      </c>
+      <c r="D83">
+        <v>1790177.8953100001</v>
+      </c>
+      <c r="E83">
+        <v>304082.64935999998</v>
+      </c>
+      <c r="F83">
+        <v>-2.17144</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84">
+        <v>337</v>
+      </c>
+      <c r="D84">
+        <v>1790179.0983599999</v>
+      </c>
+      <c r="E84">
+        <v>304084.33838999999</v>
+      </c>
+      <c r="F84">
+        <v>-1.76528</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85">
+        <v>338</v>
+      </c>
+      <c r="D85">
+        <v>1790179.22807</v>
+      </c>
+      <c r="E85">
+        <v>304084.92281000002</v>
+      </c>
+      <c r="F85">
+        <v>-2.0693899999999998</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86">
+        <v>339</v>
+      </c>
+      <c r="D86">
+        <v>1790179.83819</v>
+      </c>
+      <c r="E86">
+        <v>304086.08133999998</v>
+      </c>
+      <c r="F86">
+        <v>-1.9117999999999999</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87">
+        <v>340</v>
+      </c>
+      <c r="D87">
+        <v>1790178.94823</v>
+      </c>
+      <c r="E87">
+        <v>304086.60609999998</v>
+      </c>
+      <c r="F87">
+        <v>-2.03992</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="C88">
+        <v>341</v>
+      </c>
+      <c r="D88">
+        <v>1790180.6157199999</v>
+      </c>
+      <c r="E88">
+        <v>304088.30904999998</v>
+      </c>
+      <c r="F88">
+        <v>-1.5734300000000001</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="C89">
+        <v>342</v>
+      </c>
+      <c r="D89">
+        <v>1790180.5157099999</v>
+      </c>
+      <c r="E89">
+        <v>304089.68570999999</v>
+      </c>
+      <c r="F89">
+        <v>-1.87032</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90">
+        <v>343</v>
+      </c>
+      <c r="D90">
+        <v>1790181.7785499999</v>
+      </c>
+      <c r="E90">
+        <v>304091.38290000003</v>
+      </c>
+      <c r="F90">
+        <v>-2.5515300000000001</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91">
+        <v>344</v>
+      </c>
+      <c r="D91">
+        <v>1790222.66179</v>
+      </c>
+      <c r="E91">
+        <v>304059.23566000001</v>
+      </c>
+      <c r="F91">
+        <v>-2.7341099999999998</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5</v>
+      </c>
+      <c r="H91" s="1">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92">
+        <v>345</v>
+      </c>
+      <c r="D92">
+        <v>1790221.7063800001</v>
+      </c>
+      <c r="E92">
+        <v>304058.40385</v>
+      </c>
+      <c r="F92">
+        <v>-1.76102</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9">
+      <c r="C93">
+        <v>346</v>
+      </c>
+      <c r="D93">
+        <v>1790221.48346</v>
+      </c>
+      <c r="E93">
+        <v>304057.67494</v>
+      </c>
+      <c r="F93">
+        <v>-1.8850199999999999</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94">
+        <v>347</v>
+      </c>
+      <c r="D94">
+        <v>1790221.4434</v>
+      </c>
+      <c r="E94">
+        <v>304056.84629999998</v>
+      </c>
+      <c r="F94">
+        <v>-1.7145300000000001</v>
+      </c>
+      <c r="G94" s="1">
+        <v>5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="C95">
+        <v>348</v>
+      </c>
+      <c r="D95">
+        <v>1790219.5559400001</v>
+      </c>
+      <c r="E95">
+        <v>304054.59221999999</v>
+      </c>
+      <c r="F95">
+        <v>-1.8061</v>
+      </c>
+      <c r="G95" s="1">
+        <v>5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96">
+        <v>349</v>
+      </c>
+      <c r="D96">
+        <v>1790219.6445299999</v>
+      </c>
+      <c r="E96">
+        <v>304053.83572999999</v>
+      </c>
+      <c r="F96">
+        <v>-1.73403</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9">
+      <c r="C97">
+        <v>350</v>
+      </c>
+      <c r="D97">
+        <v>1790218.41169</v>
+      </c>
+      <c r="E97">
+        <v>304052.91405999998</v>
+      </c>
+      <c r="F97">
+        <v>-1.58335</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5</v>
+      </c>
+      <c r="H97" s="1">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9">
+      <c r="C98">
+        <v>351</v>
+      </c>
+      <c r="D98">
+        <v>1790218.1627199999</v>
+      </c>
+      <c r="E98">
+        <v>304053.41580000002</v>
+      </c>
+      <c r="F98">
+        <v>-1.5660400000000001</v>
+      </c>
+      <c r="G98" s="1">
+        <v>5</v>
+      </c>
+      <c r="H98" s="1">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9">
+      <c r="C99">
+        <v>352</v>
+      </c>
+      <c r="D99">
+        <v>1790217.43515</v>
+      </c>
+      <c r="E99">
+        <v>304052.80317999999</v>
+      </c>
+      <c r="F99">
+        <v>-1.82335</v>
+      </c>
+      <c r="G99" s="1">
+        <v>5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9">
+      <c r="C100">
+        <v>353</v>
+      </c>
+      <c r="D100">
+        <v>1790217.1058199999</v>
+      </c>
+      <c r="E100">
+        <v>304052.01217</v>
+      </c>
+      <c r="F100">
+        <v>-1.4243699999999999</v>
+      </c>
+      <c r="G100" s="1">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9">
+      <c r="C101">
+        <v>354</v>
+      </c>
+      <c r="D101">
+        <v>1790216.74349</v>
+      </c>
+      <c r="E101">
+        <v>304050.86220999999</v>
+      </c>
+      <c r="F101">
+        <v>-1.6309800000000001</v>
+      </c>
+      <c r="G101" s="1">
+        <v>5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9">
+      <c r="C102">
+        <v>355</v>
+      </c>
+      <c r="D102">
+        <v>1790215.49991</v>
+      </c>
+      <c r="E102">
+        <v>304051.05056</v>
+      </c>
+      <c r="F102">
+        <v>-1.84382</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5</v>
+      </c>
+      <c r="H102" s="1">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9">
+      <c r="C103">
+        <v>356</v>
+      </c>
+      <c r="D103">
+        <v>1790214.9646900001</v>
+      </c>
+      <c r="E103">
+        <v>304050.49173000001</v>
+      </c>
+      <c r="F103">
+        <v>-1.52155</v>
+      </c>
+      <c r="G103" s="1">
+        <v>5</v>
+      </c>
+      <c r="H103" s="1">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9">
+      <c r="C104">
+        <v>357</v>
+      </c>
+      <c r="D104">
+        <v>1790214.5673799999</v>
+      </c>
+      <c r="E104">
+        <v>304049.29038000002</v>
+      </c>
+      <c r="F104">
+        <v>-1.6602600000000001</v>
+      </c>
+      <c r="G104" s="1">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9">
+      <c r="C105">
+        <v>358</v>
+      </c>
+      <c r="D105">
+        <v>1790214.86674</v>
+      </c>
+      <c r="E105">
+        <v>304048.64711000002</v>
+      </c>
+      <c r="F105">
+        <v>-1.54558</v>
+      </c>
+      <c r="G105" s="1">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="C106">
+        <v>359</v>
+      </c>
+      <c r="D106">
+        <v>1790214.35348</v>
+      </c>
+      <c r="E106">
+        <v>304047.64856</v>
+      </c>
+      <c r="F106">
+        <v>-1.54782</v>
+      </c>
+      <c r="G106" s="1">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9">
+      <c r="C107">
+        <v>360</v>
+      </c>
+      <c r="D107">
+        <v>1790213.6850300001</v>
+      </c>
+      <c r="E107">
+        <v>304047.17362999998</v>
+      </c>
+      <c r="F107">
+        <v>-1.7670300000000001</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9">
+      <c r="C108">
+        <v>361</v>
+      </c>
+      <c r="D108">
+        <v>1790212.81278</v>
+      </c>
+      <c r="E108">
+        <v>304046.24147000001</v>
+      </c>
+      <c r="F108">
+        <v>-1.7674700000000001</v>
+      </c>
+      <c r="G108" s="1">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9">
+      <c r="C109">
+        <v>362</v>
+      </c>
+      <c r="D109">
+        <v>1790211.94361</v>
+      </c>
+      <c r="E109">
+        <v>304045.56478999997</v>
+      </c>
+      <c r="F109">
+        <v>-2.0374599999999998</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9">
+      <c r="C110">
+        <v>363</v>
+      </c>
+      <c r="D110">
+        <v>1790210.99541</v>
+      </c>
+      <c r="E110">
+        <v>304043.72155999998</v>
+      </c>
+      <c r="F110">
+        <v>-2.0234000000000001</v>
+      </c>
+      <c r="G110" s="1">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9">
+      <c r="C111">
+        <v>364</v>
+      </c>
+      <c r="D111">
+        <v>1790210.0159400001</v>
+      </c>
+      <c r="E111">
+        <v>304043.61258000002</v>
+      </c>
+      <c r="F111">
+        <v>-1.72577</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5</v>
+      </c>
+      <c r="H111" s="1">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9">
+      <c r="C112">
+        <v>365</v>
+      </c>
+      <c r="D112">
+        <v>1790209.61522</v>
+      </c>
+      <c r="E112">
+        <v>304043.34573</v>
+      </c>
+      <c r="F112">
+        <v>-1.80599</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9">
+      <c r="C113">
+        <v>366</v>
+      </c>
+      <c r="D113">
+        <v>1790209.03507</v>
+      </c>
+      <c r="E113">
+        <v>304042.21437</v>
+      </c>
+      <c r="F113">
+        <v>-2.1394000000000002</v>
+      </c>
+      <c r="G113" s="1">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9">
+      <c r="C114">
+        <v>367</v>
+      </c>
+      <c r="D114">
+        <v>1790208.8374300001</v>
+      </c>
+      <c r="E114">
+        <v>304041.55307000002</v>
+      </c>
+      <c r="F114">
+        <v>-1.71316</v>
+      </c>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9">
+      <c r="C115">
+        <v>368</v>
+      </c>
+      <c r="D115">
+        <v>1790207.72844</v>
+      </c>
+      <c r="E115">
+        <v>304041.35333000001</v>
+      </c>
+      <c r="F115">
+        <v>-1.9500900000000001</v>
+      </c>
+      <c r="G115" s="1">
+        <v>5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9">
+      <c r="C116">
+        <v>369</v>
+      </c>
+      <c r="D116">
+        <v>1790206.3395100001</v>
+      </c>
+      <c r="E116">
+        <v>304041.09484999999</v>
+      </c>
+      <c r="F116">
+        <v>-2.2717000000000001</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9">
+      <c r="C117">
+        <v>370</v>
+      </c>
+      <c r="D117">
+        <v>1790207.1512800001</v>
+      </c>
+      <c r="E117">
+        <v>304039.38286999997</v>
+      </c>
+      <c r="F117">
+        <v>-1.93902</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9">
+      <c r="C118">
+        <v>371</v>
+      </c>
+      <c r="D118">
+        <v>1790207.0201300001</v>
+      </c>
+      <c r="E118">
+        <v>304037.51459999999</v>
+      </c>
+      <c r="F118">
+        <v>-1.73803</v>
+      </c>
+      <c r="G118" s="1">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9">
+      <c r="C119">
+        <v>372</v>
+      </c>
+      <c r="D119">
+        <v>1790206.7251800001</v>
+      </c>
+      <c r="E119">
+        <v>304037.21785999998</v>
+      </c>
+      <c r="F119">
+        <v>-1.76376</v>
+      </c>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120">
+        <v>373</v>
+      </c>
+      <c r="D120">
+        <v>1790205.8149900001</v>
+      </c>
+      <c r="E120">
+        <v>304036.38459999999</v>
+      </c>
+      <c r="F120">
+        <v>-1.84649</v>
+      </c>
+      <c r="G120" s="1">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9">
+      <c r="C121">
+        <v>374</v>
+      </c>
+      <c r="D121">
+        <v>1790204.8691700001</v>
+      </c>
+      <c r="E121">
+        <v>304036.15784</v>
+      </c>
+      <c r="F121">
+        <v>-1.99478</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
+      <c r="C122">
+        <v>375</v>
+      </c>
+      <c r="D122">
+        <v>1790203.9912099999</v>
+      </c>
+      <c r="E122">
+        <v>304035.42825</v>
+      </c>
+      <c r="F122">
+        <v>-2.5263599999999999</v>
+      </c>
+      <c r="G122" s="1">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="C123">
+        <v>376</v>
+      </c>
+      <c r="D123">
+        <v>1790240.7016100001</v>
+      </c>
+      <c r="E123">
+        <v>304003.23084999999</v>
+      </c>
+      <c r="F123">
+        <v>-2.61</v>
+      </c>
+      <c r="G123" s="1">
+        <v>6</v>
+      </c>
+      <c r="H123" s="1">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9">
+      <c r="C124">
+        <v>377</v>
+      </c>
+      <c r="D124">
+        <v>1790241.49596</v>
+      </c>
+      <c r="E124">
+        <v>304004.23340999999</v>
+      </c>
+      <c r="F124">
+        <v>-1.8316600000000001</v>
+      </c>
+      <c r="G124" s="1">
+        <v>6</v>
+      </c>
+      <c r="H124" s="1">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9">
+      <c r="C125">
+        <v>378</v>
+      </c>
+      <c r="D125">
+        <v>1790241.83699</v>
+      </c>
+      <c r="E125">
+        <v>304005.67138000001</v>
+      </c>
+      <c r="F125">
+        <v>-1.56467</v>
+      </c>
+      <c r="G125" s="1">
+        <v>6</v>
+      </c>
+      <c r="H125" s="1">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9">
+      <c r="C126">
+        <v>379</v>
+      </c>
+      <c r="D126">
+        <v>1790242.2383300001</v>
+      </c>
+      <c r="E126">
+        <v>304006.32653000002</v>
+      </c>
+      <c r="F126">
+        <v>-1.94007</v>
+      </c>
+      <c r="G126" s="1">
+        <v>6</v>
+      </c>
+      <c r="H126" s="1">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9">
+      <c r="C127">
+        <v>380</v>
+      </c>
+      <c r="D127">
+        <v>1790243.5034399999</v>
+      </c>
+      <c r="E127">
+        <v>304007.79177000001</v>
+      </c>
+      <c r="F127">
+        <v>-1.6846699999999999</v>
+      </c>
+      <c r="G127" s="1">
+        <v>6</v>
+      </c>
+      <c r="H127" s="1">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9">
+      <c r="C128">
+        <v>381</v>
+      </c>
+      <c r="D128">
+        <v>1790243.9777800001</v>
+      </c>
+      <c r="E128">
+        <v>304009.14906000003</v>
+      </c>
+      <c r="F128">
+        <v>-1.78975</v>
+      </c>
+      <c r="G128" s="1">
+        <v>6</v>
+      </c>
+      <c r="H128" s="1">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9">
+      <c r="C129">
+        <v>382</v>
+      </c>
+      <c r="D129">
+        <v>1790245.0835899999</v>
+      </c>
+      <c r="E129">
+        <v>304010.94351999997</v>
+      </c>
+      <c r="F129">
+        <v>-1.81976</v>
+      </c>
+      <c r="G129" s="1">
+        <v>6</v>
+      </c>
+      <c r="H129" s="1">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9">
+      <c r="C130">
+        <v>383</v>
+      </c>
+      <c r="D130">
+        <v>1790244.8211999999</v>
+      </c>
+      <c r="E130">
+        <v>304014.71175999998</v>
+      </c>
+      <c r="F130">
+        <v>-2.2345600000000001</v>
+      </c>
+      <c r="G130" s="1">
+        <v>6</v>
+      </c>
+      <c r="H130" s="1">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9">
+      <c r="C131">
+        <v>384</v>
+      </c>
+      <c r="D131">
+        <v>1790245.4898900001</v>
+      </c>
+      <c r="E131">
+        <v>304015.72162999999</v>
+      </c>
+      <c r="F131">
+        <v>-2.0692699999999999</v>
+      </c>
+      <c r="G131" s="1">
+        <v>6</v>
+      </c>
+      <c r="H131" s="1">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9">
+      <c r="C132">
+        <v>385</v>
+      </c>
+      <c r="D132">
+        <v>1790247.0964800001</v>
+      </c>
+      <c r="E132">
+        <v>304017.12864000001</v>
+      </c>
+      <c r="F132">
+        <v>-2.1242899999999998</v>
+      </c>
+      <c r="G132" s="1">
+        <v>6</v>
+      </c>
+      <c r="H132" s="1">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9">
+      <c r="C133">
+        <v>386</v>
+      </c>
+      <c r="D133">
+        <v>1790249.7307599999</v>
+      </c>
+      <c r="E133">
+        <v>304017.66924000002</v>
+      </c>
+      <c r="F133">
+        <v>-2.1398199999999998</v>
+      </c>
+      <c r="G133" s="1">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9">
+      <c r="C134">
+        <v>387</v>
+      </c>
+      <c r="D134">
+        <v>1790249.4640599999</v>
+      </c>
+      <c r="E134">
+        <v>304020.11427999998</v>
+      </c>
+      <c r="F134">
+        <v>-1.7207699999999999</v>
+      </c>
+      <c r="G134" s="1">
+        <v>6</v>
+      </c>
+      <c r="H134" s="1">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9">
+      <c r="C135">
+        <v>388</v>
+      </c>
+      <c r="D135">
+        <v>1790250.9165000001</v>
+      </c>
+      <c r="E135">
+        <v>304021.00806000002</v>
+      </c>
+      <c r="F135">
+        <v>-1.9903</v>
+      </c>
+      <c r="G135" s="1">
+        <v>6</v>
+      </c>
+      <c r="H135" s="1">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9">
+      <c r="C136">
+        <v>389</v>
+      </c>
+      <c r="D136">
+        <v>1790251.28464</v>
+      </c>
+      <c r="E136">
+        <v>304022.07611999998</v>
+      </c>
+      <c r="F136">
+        <v>-1.72153</v>
+      </c>
+      <c r="G136" s="1">
+        <v>6</v>
+      </c>
+      <c r="H136" s="1">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9">
+      <c r="C137">
+        <v>390</v>
+      </c>
+      <c r="D137">
+        <v>1790251.61941</v>
+      </c>
+      <c r="E137">
+        <v>304023.48911000002</v>
+      </c>
+      <c r="F137">
+        <v>-2.1157599999999999</v>
+      </c>
+      <c r="G137" s="1">
+        <v>6</v>
+      </c>
+      <c r="H137" s="1">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9">
+      <c r="C138">
+        <v>391</v>
+      </c>
+      <c r="D138">
+        <v>1790252.4920399999</v>
+      </c>
+      <c r="E138">
+        <v>304023.75221000001</v>
+      </c>
+      <c r="F138">
+        <v>-2.2603</v>
+      </c>
+      <c r="G138" s="1">
+        <v>6</v>
+      </c>
+      <c r="H138" s="1">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9">
+      <c r="C139">
+        <v>392</v>
+      </c>
+      <c r="D139">
+        <v>1790252.7349400001</v>
+      </c>
+      <c r="E139">
+        <v>304024.63147999998</v>
+      </c>
+      <c r="F139">
+        <v>-1.81006</v>
+      </c>
+      <c r="G139" s="1">
+        <v>6</v>
+      </c>
+      <c r="H139" s="1">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9">
+      <c r="C140">
+        <v>393</v>
+      </c>
+      <c r="D140">
+        <v>1790252.1055699999</v>
+      </c>
+      <c r="E140">
+        <v>304025.98439</v>
+      </c>
+      <c r="F140">
+        <v>-1.6310100000000001</v>
+      </c>
+      <c r="G140" s="1">
+        <v>6</v>
+      </c>
+      <c r="H140" s="1">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9">
+      <c r="C141">
+        <v>394</v>
+      </c>
+      <c r="D141">
+        <v>1790253.02193</v>
+      </c>
+      <c r="E141">
+        <v>304026.44847</v>
+      </c>
+      <c r="F141">
+        <v>-1.66571</v>
+      </c>
+      <c r="G141" s="1">
+        <v>6</v>
+      </c>
+      <c r="H141" s="1">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="C142">
+        <v>395</v>
+      </c>
+      <c r="D142">
+        <v>1790254.2450699999</v>
+      </c>
+      <c r="E142">
+        <v>304026.47068999999</v>
+      </c>
+      <c r="F142">
+        <v>-1.5082899999999999</v>
+      </c>
+      <c r="G142" s="1">
+        <v>6</v>
+      </c>
+      <c r="H142" s="1">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9">
+      <c r="C143">
+        <v>396</v>
+      </c>
+      <c r="D143">
+        <v>1790254.6097500001</v>
+      </c>
+      <c r="E143">
+        <v>304028.21577000001</v>
+      </c>
+      <c r="F143">
+        <v>-1.9961500000000001</v>
+      </c>
+      <c r="G143" s="1">
+        <v>6</v>
+      </c>
+      <c r="H143" s="1">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144">
+        <v>397</v>
+      </c>
+      <c r="D144">
+        <v>1790261.4697</v>
+      </c>
+      <c r="E144">
+        <v>304026.54149999999</v>
+      </c>
+      <c r="F144">
+        <v>-2.99973</v>
+      </c>
+      <c r="G144" s="1">
+        <v>6</v>
+      </c>
+      <c r="H144" s="1">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145">
+        <v>398</v>
+      </c>
+      <c r="D145">
+        <v>1790301.59742</v>
+      </c>
+      <c r="E145">
+        <v>303999.0085</v>
+      </c>
+      <c r="F145">
+        <v>-3.3631899999999999</v>
+      </c>
+      <c r="G145" s="1">
+        <v>7</v>
+      </c>
+      <c r="H145" s="1">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146">
+        <v>399</v>
+      </c>
+      <c r="D146">
+        <v>1790300.5493600001</v>
+      </c>
+      <c r="E146">
+        <v>303999.27364000003</v>
+      </c>
+      <c r="F146">
+        <v>-1.9799500000000001</v>
+      </c>
+      <c r="G146" s="1">
+        <v>7</v>
+      </c>
+      <c r="H146" s="1">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147">
+        <v>400</v>
+      </c>
+      <c r="D147">
+        <v>1790300.52813</v>
+      </c>
+      <c r="E147">
+        <v>303997.69244000001</v>
+      </c>
+      <c r="F147">
+        <v>-2.4482900000000001</v>
+      </c>
+      <c r="G147" s="1">
+        <v>7</v>
+      </c>
+      <c r="H147" s="1">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148">
+        <v>401</v>
+      </c>
+      <c r="D148">
+        <v>1790301.0252400001</v>
+      </c>
+      <c r="E148">
+        <v>303996.57183999999</v>
+      </c>
+      <c r="F148">
+        <v>-2.3585500000000001</v>
+      </c>
+      <c r="G148" s="1">
+        <v>7</v>
+      </c>
+      <c r="H148" s="1">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149">
+        <v>402</v>
+      </c>
+      <c r="D149">
+        <v>1790300.28125</v>
+      </c>
+      <c r="E149">
+        <v>303995.94154000003</v>
+      </c>
+      <c r="F149">
+        <v>-2.3237999999999999</v>
+      </c>
+      <c r="G149" s="1">
+        <v>7</v>
+      </c>
+      <c r="H149" s="1">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="C150">
+        <v>403</v>
+      </c>
+      <c r="D150">
+        <v>1790300.1913600001</v>
+      </c>
+      <c r="E150">
+        <v>303994.239</v>
+      </c>
+      <c r="F150">
+        <v>-1.6988300000000001</v>
+      </c>
+      <c r="G150" s="1">
+        <v>7</v>
+      </c>
+      <c r="H150" s="1">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="C151">
+        <v>404</v>
+      </c>
+      <c r="D151">
+        <v>1790298.6614300001</v>
+      </c>
+      <c r="E151">
+        <v>303993.08484999998</v>
+      </c>
+      <c r="F151">
+        <v>-1.82152</v>
+      </c>
+      <c r="G151" s="1">
+        <v>7</v>
+      </c>
+      <c r="H151" s="1">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="C152">
+        <v>405</v>
+      </c>
+      <c r="D152">
+        <v>1790298.7100500001</v>
+      </c>
+      <c r="E152">
+        <v>303992.58276999998</v>
+      </c>
+      <c r="F152">
+        <v>-2.0506000000000002</v>
+      </c>
+      <c r="G152" s="1">
+        <v>7</v>
+      </c>
+      <c r="H152" s="1">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="C153">
+        <v>406</v>
+      </c>
+      <c r="D153">
+        <v>1790297.72272</v>
+      </c>
+      <c r="E153">
+        <v>303991.87442000001</v>
+      </c>
+      <c r="F153">
+        <v>-2.27461</v>
+      </c>
+      <c r="G153" s="1">
+        <v>7</v>
+      </c>
+      <c r="H153" s="1">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="C154">
+        <v>407</v>
+      </c>
+      <c r="D154">
+        <v>1790297.16622</v>
+      </c>
+      <c r="E154">
+        <v>303990.45237999997</v>
+      </c>
+      <c r="F154">
+        <v>-1.84202</v>
+      </c>
+      <c r="G154" s="1">
+        <v>7</v>
+      </c>
+      <c r="H154" s="1">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9">
+      <c r="C155">
+        <v>408</v>
+      </c>
+      <c r="D155">
+        <v>1790294.89328</v>
+      </c>
+      <c r="E155">
+        <v>303989.50978000002</v>
+      </c>
+      <c r="F155">
+        <v>-2.2273000000000001</v>
+      </c>
+      <c r="G155" s="1">
+        <v>7</v>
+      </c>
+      <c r="H155" s="1">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="C156">
+        <v>409</v>
+      </c>
+      <c r="D156">
+        <v>1790293.2321200001</v>
+      </c>
+      <c r="E156">
+        <v>303988.58665999997</v>
+      </c>
+      <c r="F156">
+        <v>-1.8099099999999999</v>
+      </c>
+      <c r="G156" s="1">
+        <v>7</v>
+      </c>
+      <c r="H156" s="1">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="C157">
+        <v>410</v>
+      </c>
+      <c r="D157">
+        <v>1790292.8296999999</v>
+      </c>
+      <c r="E157">
+        <v>303987.20405</v>
+      </c>
+      <c r="F157">
+        <v>-1.6936199999999999</v>
+      </c>
+      <c r="G157" s="1">
+        <v>7</v>
+      </c>
+      <c r="H157" s="1">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9">
+      <c r="C158">
+        <v>411</v>
+      </c>
+      <c r="D158">
+        <v>1790292.2197</v>
+      </c>
+      <c r="E158">
+        <v>303984.39756999997</v>
+      </c>
+      <c r="F158">
+        <v>-2.1021899999999998</v>
+      </c>
+      <c r="G158" s="1">
+        <v>7</v>
+      </c>
+      <c r="H158" s="1">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9">
+      <c r="C159">
+        <v>412</v>
+      </c>
+      <c r="D159">
+        <v>1790290.2961800001</v>
+      </c>
+      <c r="E159">
+        <v>303983.42099000001</v>
+      </c>
+      <c r="F159">
+        <v>-1.6528499999999999</v>
+      </c>
+      <c r="G159" s="1">
+        <v>7</v>
+      </c>
+      <c r="H159" s="1">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9">
+      <c r="C160">
+        <v>413</v>
+      </c>
+      <c r="D160">
+        <v>1790289.6723499999</v>
+      </c>
+      <c r="E160">
+        <v>303981.29392000003</v>
+      </c>
+      <c r="F160">
+        <v>-1.98332</v>
+      </c>
+      <c r="G160" s="1">
+        <v>7</v>
+      </c>
+      <c r="H160" s="1">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9">
+      <c r="C161">
+        <v>414</v>
+      </c>
+      <c r="D161">
+        <v>1790286.82748</v>
+      </c>
+      <c r="E161">
+        <v>303978.52312000003</v>
+      </c>
+      <c r="F161">
+        <v>-2.2061000000000002</v>
+      </c>
+      <c r="G161" s="1">
+        <v>7</v>
+      </c>
+      <c r="H161" s="1">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="C162">
+        <v>415</v>
+      </c>
+      <c r="D162">
+        <v>1790285.0611099999</v>
+      </c>
+      <c r="E162">
+        <v>303977.36177000002</v>
+      </c>
+      <c r="F162">
+        <v>-2.1303200000000002</v>
+      </c>
+      <c r="G162" s="1">
+        <v>7</v>
+      </c>
+      <c r="H162" s="1">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="C163">
+        <v>416</v>
+      </c>
+      <c r="D163">
+        <v>1790283.4357</v>
+      </c>
+      <c r="E163">
+        <v>303973.97492000001</v>
+      </c>
+      <c r="F163">
+        <v>-3.0764300000000002</v>
+      </c>
+      <c r="G163" s="1">
+        <v>7</v>
+      </c>
+      <c r="H163" s="1">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>